--- a/excel/finished/wg10#焦化/10#焦炉加热制度.xlsx
+++ b/excel/finished/wg10#焦化/10#焦炉加热制度.xlsx
@@ -1,27 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\developSoftWare\houduancode\wg-steel\excel\finished\wg10#焦化\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A98C7834-0178-4FBD-8CE6-9860448E470B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19425" windowHeight="11025"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="9焦炉加热" sheetId="1" r:id="rId1"/>
     <sheet name="_jiaolujiare_day_all" sheetId="3" r:id="rId2"/>
-    <sheet name="_metadata" sheetId="2" r:id="rId3"/>
+    <sheet name="_metadata" sheetId="5" r:id="rId3"/>
+    <sheet name="_dictionary" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -509,14 +522,18 @@
   </si>
   <si>
     <t>ZP_CK9_10_L1R_CI_221CF151FT_DACA_PV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>version</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -936,12 +953,72 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -960,68 +1037,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1295,122 +1312,122 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.625" style="1"/>
-    <col min="2" max="2" width="7.625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.625" style="1"/>
+    <col min="1" max="1" width="8.6640625" style="1"/>
+    <col min="2" max="2" width="7.6640625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="24.6" customHeight="1">
-      <c r="D2" s="19" t="s">
+    <row r="2" spans="2:14" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-    </row>
-    <row r="3" spans="2:14">
-      <c r="K3" s="33" t="s">
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="K3" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-    </row>
-    <row r="4" spans="2:14" ht="13.5" customHeight="1" thickBot="1">
-      <c r="K4" s="34" t="s">
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+    </row>
+    <row r="4" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K4" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-    </row>
-    <row r="5" spans="2:14" ht="24.95" customHeight="1" thickTop="1">
-      <c r="B5" s="35" t="s">
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+    </row>
+    <row r="5" spans="2:14" ht="24.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="37" t="s">
+      <c r="D5" s="28"/>
+      <c r="E5" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="37" t="s">
+      <c r="F5" s="28"/>
+      <c r="G5" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20" t="s">
+      <c r="H5" s="28"/>
+      <c r="I5" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="21"/>
-    </row>
-    <row r="6" spans="2:14" ht="14.45" customHeight="1">
-      <c r="B6" s="36"/>
-      <c r="C6" s="13" t="s">
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="40"/>
+    </row>
+    <row r="6" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="26"/>
+      <c r="C6" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="38" t="s">
+      <c r="I6" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="39"/>
-      <c r="K6" s="38" t="s">
+      <c r="J6" s="31"/>
+      <c r="K6" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="39"/>
-      <c r="M6" s="38" t="s">
+      <c r="L6" s="31"/>
+      <c r="M6" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="N6" s="40"/>
-    </row>
-    <row r="7" spans="2:14" ht="33.950000000000003" customHeight="1">
-      <c r="B7" s="36"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
+      <c r="N6" s="32"/>
+    </row>
+    <row r="7" spans="2:14" ht="33.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="26"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
       <c r="I7" s="10" t="s">
         <v>24</v>
       </c>
@@ -1430,7 +1447,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:14" ht="18.600000000000001" customHeight="1">
+    <row r="8" spans="2:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5">
         <v>8</v>
       </c>
@@ -1477,7 +1494,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="2:14" ht="18.600000000000001" customHeight="1">
+    <row r="9" spans="2:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5">
         <v>10</v>
       </c>
@@ -1524,7 +1541,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="2:14" ht="18.600000000000001" customHeight="1">
+    <row r="10" spans="2:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="5">
         <v>12</v>
       </c>
@@ -1571,7 +1588,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="2:14" ht="18.600000000000001" customHeight="1">
+    <row r="11" spans="2:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="5">
         <v>14</v>
       </c>
@@ -1618,7 +1635,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="2:14" ht="18.600000000000001" customHeight="1">
+    <row r="12" spans="2:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="5">
         <v>16</v>
       </c>
@@ -1665,7 +1682,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="2:14" ht="18.600000000000001" customHeight="1">
+    <row r="13" spans="2:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="5">
         <v>18</v>
       </c>
@@ -1712,7 +1729,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="2:14" ht="18.600000000000001" customHeight="1">
+    <row r="14" spans="2:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="5">
         <v>20</v>
       </c>
@@ -1759,7 +1776,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="2:14" ht="18.600000000000001" customHeight="1">
+    <row r="15" spans="2:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="5">
         <v>22</v>
       </c>
@@ -1806,7 +1823,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="2:14" ht="18.600000000000001" customHeight="1">
+    <row r="16" spans="2:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="5">
         <v>24</v>
       </c>
@@ -1853,7 +1870,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="2:14" ht="18.600000000000001" customHeight="1">
+    <row r="17" spans="2:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="5">
         <v>2</v>
       </c>
@@ -1900,7 +1917,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="2:14" ht="18.600000000000001" customHeight="1">
+    <row r="18" spans="2:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="5">
         <v>4</v>
       </c>
@@ -1947,7 +1964,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="2:14" ht="18.600000000000001" customHeight="1">
+    <row r="19" spans="2:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="5">
         <v>6</v>
       </c>
@@ -1994,7 +2011,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="2:14" ht="18.600000000000001" customHeight="1">
+    <row r="20" spans="2:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
         <v>12</v>
       </c>
@@ -2047,7 +2064,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="2:14" ht="18.600000000000001" customHeight="1">
+    <row r="21" spans="2:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
         <v>13</v>
       </c>
@@ -2100,7 +2117,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="2:14" ht="18.600000000000001" customHeight="1">
+    <row r="22" spans="2:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
         <v>14</v>
       </c>
@@ -2153,122 +2170,127 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="2:14" ht="39.950000000000003" customHeight="1">
-      <c r="B23" s="14" t="s">
+    <row r="23" spans="2:14" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="17" t="s">
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="18"/>
-    </row>
-    <row r="24" spans="2:14">
-      <c r="B24" s="22" t="s">
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="38"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="26"/>
-    </row>
-    <row r="25" spans="2:14">
-      <c r="B25" s="22"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="29"/>
-    </row>
-    <row r="26" spans="2:14">
-      <c r="B26" s="22"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="29"/>
-    </row>
-    <row r="27" spans="2:14">
-      <c r="B27" s="22"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="28"/>
-      <c r="M27" s="28"/>
-      <c r="N27" s="29"/>
-    </row>
-    <row r="28" spans="2:14">
-      <c r="B28" s="22"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="28"/>
-      <c r="N28" s="29"/>
-    </row>
-    <row r="29" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B29" s="23"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="31"/>
-      <c r="L29" s="31"/>
-      <c r="M29" s="31"/>
-      <c r="N29" s="32"/>
-    </row>
-    <row r="30" spans="2:14" ht="15.75" thickTop="1"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="16"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B25" s="12"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="19"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B26" s="12"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="19"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B27" s="12"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="19"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B28" s="12"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="19"/>
+    </row>
+    <row r="29" spans="2:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="13"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="22"/>
+    </row>
+    <row r="30" spans="2:14" ht="14.4" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="I23:N23"/>
+    <mergeCell ref="D2:L2"/>
+    <mergeCell ref="I5:N5"/>
     <mergeCell ref="B24:B29"/>
     <mergeCell ref="C24:N29"/>
     <mergeCell ref="K3:N3"/>
@@ -2285,11 +2307,6 @@
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="M6:N6"/>
     <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="I23:N23"/>
-    <mergeCell ref="D2:L2"/>
-    <mergeCell ref="I5:N5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2298,16 +2315,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="33.950000000000003" customHeight="1">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="33.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>35</v>
       </c>
@@ -2348,15 +2365,39 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40378819-6798-4901-AB89-44C8DCF0D466}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1">
+        <v>910</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/excel/finished/wg10#焦化/10#焦炉加热制度.xlsx
+++ b/excel/finished/wg10#焦化/10#焦炉加热制度.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\developSoftWare\houduancode\wg-steel\excel\finished\wg10#焦化\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A98C7834-0178-4FBD-8CE6-9860448E470B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE1C003A-F962-4A11-9E18-4DA89282A310}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="9焦炉加热" sheetId="1" r:id="rId1"/>
+    <sheet name="10焦炉加热" sheetId="1" r:id="rId1"/>
     <sheet name="_jiaolujiare_day_all" sheetId="3" r:id="rId2"/>
     <sheet name="_metadata" sheetId="5" r:id="rId3"/>
     <sheet name="_dictionary" sheetId="2" r:id="rId4"/>
@@ -426,22 +426,6 @@
   </si>
   <si>
     <r>
-      <t>9#</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>焦炉加热制度</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
@@ -526,6 +510,22 @@
   </si>
   <si>
     <t>version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10#</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>焦炉加热制度</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -953,6 +953,36 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1001,12 +1031,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1015,30 +1039,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1322,8 +1322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:N30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1334,105 +1334,105 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="K3" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+    </row>
+    <row r="4" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K4" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+    </row>
+    <row r="5" spans="2:14" ht="24.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="20"/>
+      <c r="E5" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="20"/>
+      <c r="G5" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="21"/>
+    </row>
+    <row r="6" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="36"/>
+      <c r="C6" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="K3" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-    </row>
-    <row r="4" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K4" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-    </row>
-    <row r="5" spans="2:14" ht="24.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="28"/>
-      <c r="G5" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="40"/>
-    </row>
-    <row r="6" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="26"/>
-      <c r="C6" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="29" t="s">
+      <c r="H6" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="33" t="s">
+      <c r="I6" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="39"/>
+      <c r="K6" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="L6" s="39"/>
+      <c r="M6" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="N6" s="40"/>
+    </row>
+    <row r="7" spans="2:14" ht="33.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="36"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="J6" s="31"/>
-      <c r="K6" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="L6" s="31"/>
-      <c r="M6" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="N6" s="32"/>
-    </row>
-    <row r="7" spans="2:14" ht="33.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="26"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="10" t="s">
+      <c r="J7" s="10" t="s">
         <v>24</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>25</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>7</v>
@@ -2171,126 +2171,121 @@
       </c>
     </row>
     <row r="23" spans="2:14" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="37" t="s">
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="38"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="18"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="16"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="26"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B25" s="12"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="19"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="29"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B26" s="12"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="19"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="29"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="12"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="19"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="29"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="12"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="19"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="29"/>
     </row>
     <row r="29" spans="2:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="13"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="22"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="32"/>
     </row>
     <row r="30" spans="2:14" ht="14.4" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="I23:N23"/>
-    <mergeCell ref="D2:L2"/>
-    <mergeCell ref="I5:N5"/>
     <mergeCell ref="B24:B29"/>
     <mergeCell ref="C24:N29"/>
     <mergeCell ref="K3:N3"/>
@@ -2307,6 +2302,11 @@
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="M6:N6"/>
     <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="I23:N23"/>
+    <mergeCell ref="D2:L2"/>
+    <mergeCell ref="I5:N5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2326,36 +2326,36 @@
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="33.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E1" s="9"/>
       <c r="F1" s="9"/>
       <c r="G1" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -2368,7 +2368,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40378819-6798-4901-AB89-44C8DCF0D466}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
@@ -2383,15 +2383,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1">
         <v>910</v>

--- a/excel/finished/wg10#焦化/10#焦炉加热制度.xlsx
+++ b/excel/finished/wg10#焦化/10#焦炉加热制度.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\developSoftWare\houduancode\wg-steel\excel\finished\wg10#焦化\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE1C003A-F962-4A11-9E18-4DA89282A310}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D5F6E15-9856-4E01-A693-55464706B03A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -953,12 +953,72 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -977,68 +1037,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1322,112 +1322,112 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.6640625" style="1"/>
-    <col min="2" max="2" width="7.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" style="1" customWidth="1"/>
     <col min="3" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="K3" s="33" t="s">
+      <c r="K3" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
     </row>
     <row r="4" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K4" s="34" t="s">
+      <c r="K4" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
     </row>
     <row r="5" spans="2:14" ht="24.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="37" t="s">
+      <c r="D5" s="28"/>
+      <c r="E5" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="37" t="s">
+      <c r="F5" s="28"/>
+      <c r="G5" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20" t="s">
+      <c r="H5" s="28"/>
+      <c r="I5" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="21"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="40"/>
     </row>
     <row r="6" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="36"/>
-      <c r="C6" s="13" t="s">
+      <c r="B6" s="26"/>
+      <c r="C6" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="38" t="s">
+      <c r="I6" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="39"/>
-      <c r="K6" s="38" t="s">
+      <c r="J6" s="31"/>
+      <c r="K6" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="39"/>
-      <c r="M6" s="38" t="s">
+      <c r="L6" s="31"/>
+      <c r="M6" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="N6" s="40"/>
+      <c r="N6" s="32"/>
     </row>
     <row r="7" spans="2:14" ht="33.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="36"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
       <c r="I7" s="10" t="s">
         <v>23</v>
       </c>
@@ -2171,121 +2171,126 @@
       </c>
     </row>
     <row r="23" spans="2:14" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="17" t="s">
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="18"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="38"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="26"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="16"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B25" s="22"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="29"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="19"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B26" s="22"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="29"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="19"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="22"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="28"/>
-      <c r="M27" s="28"/>
-      <c r="N27" s="29"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="19"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="22"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="28"/>
-      <c r="N28" s="29"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="19"/>
     </row>
     <row r="29" spans="2:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="23"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="31"/>
-      <c r="L29" s="31"/>
-      <c r="M29" s="31"/>
-      <c r="N29" s="32"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="22"/>
     </row>
     <row r="30" spans="2:14" ht="14.4" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="I23:N23"/>
+    <mergeCell ref="D2:L2"/>
+    <mergeCell ref="I5:N5"/>
     <mergeCell ref="B24:B29"/>
     <mergeCell ref="C24:N29"/>
     <mergeCell ref="K3:N3"/>
@@ -2302,11 +2307,6 @@
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="M6:N6"/>
     <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="I23:N23"/>
-    <mergeCell ref="D2:L2"/>
-    <mergeCell ref="I5:N5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel/finished/wg10#焦化/10#焦炉加热制度.xlsx
+++ b/excel/finished/wg10#焦化/10#焦炉加热制度.xlsx
@@ -1,28 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\developSoftWare\houduancode\wg-steel\excel\finished\wg10#焦化\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\template\焦化910\炼焦\cn_zh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D5F6E15-9856-4E01-A693-55464706B03A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1364D18F-C142-440A-99A5-E080C0966C33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="10焦炉加热" sheetId="1" r:id="rId1"/>
-    <sheet name="_jiaolujiare_day_all" sheetId="3" r:id="rId2"/>
-    <sheet name="_metadata" sheetId="5" r:id="rId3"/>
-    <sheet name="_dictionary" sheetId="2" r:id="rId4"/>
+    <sheet name="_jiaolujiare_day_all" sheetId="2" r:id="rId2"/>
+    <sheet name="_metadata" sheetId="3" r:id="rId3"/>
+    <sheet name="_dictionary" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -36,8 +33,96 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <r>
+      <t>10#</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>焦炉加热制度</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>编号：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>JL/LHJH-SCB-107</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日</t>
+    </r>
   </si>
   <si>
     <r>
@@ -73,7 +158,15 @@
       </rPr>
       <t>时间</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高炉煤气</t>
+  </si>
+  <si>
+    <t>焦炉煤气</t>
+  </si>
+  <si>
+    <t>烟道</t>
   </si>
   <si>
     <r>
@@ -87,7 +180,6 @@
       </rPr>
       <t>集气管</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -119,12 +211,8 @@
       </rPr>
       <t>）</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -133,13 +221,16 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>段</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
+      <t>压力（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Pa</t>
     </r>
     <r>
       <rPr>
@@ -149,14 +240,10 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>段</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -165,11 +252,17 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>段</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+      <t>吸力（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Pa</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -178,11 +271,16 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>压力</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t>温度（℃）</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -191,11 +289,13 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>温度</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+      <t>段</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -204,16 +304,12 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>记</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">          </t>
+      <t>段</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
     </r>
     <r>
       <rPr>
@@ -223,99 +319,14 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>事</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>编号：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>JL/LHJH-SCB-107</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">                   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白班平均</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>夜班平均</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全天平均</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+      <t>段</t>
+    </r>
+  </si>
+  <si>
+    <t>压力</t>
+  </si>
+  <si>
+    <t>温度</t>
   </si>
   <si>
     <r>
@@ -326,17 +337,10 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>班组</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">:               </t>
-    </r>
+      <t>压力</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -345,17 +349,19 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>交班</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">:                 </t>
-    </r>
+      <t>温度</t>
+    </r>
+  </si>
+  <si>
+    <t>白班平均</t>
+  </si>
+  <si>
+    <t>夜班平均</t>
+  </si>
+  <si>
+    <t>全天平均</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -364,7 +370,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>接班</t>
+      <t>班组</t>
     </r>
     <r>
       <rPr>
@@ -373,26 +379,8 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>:</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>班组:               交班:                 接班:</t>
-  </si>
-  <si>
-    <t>高炉煤气</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>焦炉煤气</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>烟道</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+      <t xml:space="preserve">:               </t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -401,7 +389,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>压力（</t>
+      <t>交班</t>
     </r>
     <r>
       <rPr>
@@ -410,7 +398,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Pa</t>
+      <t xml:space="preserve">:                 </t>
     </r>
     <r>
       <rPr>
@@ -420,9 +408,20 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+      <t>接班</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>班组:               交班:                 接班:</t>
   </si>
   <si>
     <r>
@@ -433,7 +432,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>吸力（</t>
+      <t>记</t>
     </r>
     <r>
       <rPr>
@@ -442,7 +441,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Pa</t>
+      <t xml:space="preserve">          </t>
     </r>
     <r>
       <rPr>
@@ -452,108 +451,85 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>温度（℃）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>压力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>温度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+      <t>事</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>ZP_CK9_10_L1R_CI_221CF151FT_DACA_PV</t>
+  </si>
+  <si>
+    <t>ZP_CK9_10_L1R_CI_221ZP152PT_DACA_PV</t>
+  </si>
+  <si>
+    <t>ZP_CK9_10_L1R_CI_221CF051FT_DACA_PV</t>
+  </si>
+  <si>
+    <t>ZP_CK9_10_L1R_CI_221ZP052PT_DACA_PV</t>
+  </si>
+  <si>
+    <t>ZP_CK9_10_L1R_CI_222CP911PT_DACA_PV</t>
+  </si>
+  <si>
+    <t>ZP_CK9_10_L1R_CI_222CT202TE_DACA_PV</t>
+  </si>
+  <si>
+    <t>ZP_CK9_10_L1R_CI_222CP921PT_DACA_PV</t>
+  </si>
+  <si>
+    <t>ZP_CK9_10_L1R_CI_222CT232TE_DACA_PV</t>
+  </si>
+  <si>
+    <t>ZP_CK9_10_L1R_CI_222CP931PT_DACA_PV</t>
   </si>
   <si>
     <t>ZP_CK9_10_L1R_CI_222CT262TE_DACA_PV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZP_CK9_10_L1R_CI_222CP931PT_DACA_PV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZP_CK9_10_L1R_CI_222CT232TE_DACA_PV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZP_CK9_10_L1R_CI_222CP921PT_DACA_PV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZP_CK9_10_L1R_CI_222CT202TE_DACA_PV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZP_CK9_10_L1R_CI_222CP911PT_DACA_PV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZP_CK9_10_L1R_CI_221ZP052PT_DACA_PV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZP_CK9_10_L1R_CI_221CF051FT_DACA_PV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZP_CK9_10_L1R_CI_221ZP152PT_DACA_PV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZP_CK9_10_L1R_CI_221CF151FT_DACA_PV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>version</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>10#</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>焦炉加热制度</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+  </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
+      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
@@ -571,17 +547,12 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="18"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -601,22 +572,16 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -639,7 +604,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -648,17 +613,179 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="1">
+      <left style="thick">
+        <color theme="1"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
+      </right>
+      <top style="thick">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal style="medium">
+        <color theme="1"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thick">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top style="thick">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="1">
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
+      </bottom>
+      <diagonal style="medium">
+        <color theme="1"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -666,20 +793,20 @@
       <left/>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -688,96 +815,74 @@
       <left/>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </left>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="1">
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thick">
-        <color auto="1"/>
+        <color theme="1"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </right>
-      <top style="thick">
-        <color auto="1"/>
+      <top style="thin">
+        <color theme="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal style="medium">
-        <color theme="1"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
+      <bottom style="thick">
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalDown="1">
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal style="medium">
-        <color theme="1"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
+      <top/>
+      <bottom style="thick">
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -796,249 +901,134 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="41">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="42">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1101,73 +1091,13 @@
     <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1175,7 +1105,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1201,7 +1131,7 @@
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1253,16 +1183,28 @@
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -1278,7 +1220,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1310,146 +1252,144 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:N30"/>
+  <dimension ref="B2:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20:C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="1"/>
-    <col min="2" max="2" width="9.5546875" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.6640625" style="1"/>
+    <col min="1" max="1" width="8.69921875" style="1"/>
+    <col min="2" max="2" width="9.59765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.796875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.69921875" style="1"/>
+    <col min="5" max="5" width="10.296875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
+      <c r="D2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="K3" s="23" t="s">
+      <c r="K3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+    </row>
+    <row r="4" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K4" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+    </row>
+    <row r="5" spans="2:14" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="19"/>
+      <c r="E5" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="19"/>
+      <c r="G5" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="20"/>
+    </row>
+    <row r="6" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="17"/>
+      <c r="C6" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-    </row>
-    <row r="4" spans="2:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K4" s="24" t="s">
+      <c r="H6" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-    </row>
-    <row r="5" spans="2:14" ht="24.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="27" t="s">
+      <c r="I6" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="24"/>
+      <c r="K6" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" s="24"/>
+      <c r="M6" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="N6" s="25"/>
+    </row>
+    <row r="7" spans="2:14" ht="33.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="17"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="27" t="s">
+      <c r="L7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="28"/>
-      <c r="G5" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="40"/>
-    </row>
-    <row r="6" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="26"/>
-      <c r="C6" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="29" t="s">
+      <c r="M7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="10">
         <v>20</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="J6" s="31"/>
-      <c r="K6" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="L6" s="31"/>
-      <c r="M6" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="N6" s="32"/>
-    </row>
-    <row r="7" spans="2:14" ht="33.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="26"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="5">
-        <v>8</v>
       </c>
       <c r="C8" s="6" t="str">
         <f>IF(_jiaolujiare_day_all!A2="","",_jiaolujiare_day_all!A2)</f>
@@ -1495,8 +1435,8 @@
       </c>
     </row>
     <row r="9" spans="2:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="5">
-        <v>10</v>
+      <c r="B9" s="10">
+        <v>22</v>
       </c>
       <c r="C9" s="6" t="str">
         <f>IF(_jiaolujiare_day_all!A3="","",_jiaolujiare_day_all!A3)</f>
@@ -1542,8 +1482,8 @@
       </c>
     </row>
     <row r="10" spans="2:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="5">
-        <v>12</v>
+      <c r="B10" s="10">
+        <v>24</v>
       </c>
       <c r="C10" s="6" t="str">
         <f>IF(_jiaolujiare_day_all!A4="","",_jiaolujiare_day_all!A4)</f>
@@ -1589,8 +1529,8 @@
       </c>
     </row>
     <row r="11" spans="2:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="5">
-        <v>14</v>
+      <c r="B11" s="10">
+        <v>2</v>
       </c>
       <c r="C11" s="6" t="str">
         <f>IF(_jiaolujiare_day_all!A5="","",_jiaolujiare_day_all!A5)</f>
@@ -1636,8 +1576,8 @@
       </c>
     </row>
     <row r="12" spans="2:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="5">
-        <v>16</v>
+      <c r="B12" s="10">
+        <v>4</v>
       </c>
       <c r="C12" s="6" t="str">
         <f>IF(_jiaolujiare_day_all!A6="","",_jiaolujiare_day_all!A6)</f>
@@ -1683,8 +1623,8 @@
       </c>
     </row>
     <row r="13" spans="2:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="5">
-        <v>18</v>
+      <c r="B13" s="10">
+        <v>6</v>
       </c>
       <c r="C13" s="6" t="str">
         <f>IF(_jiaolujiare_day_all!A7="","",_jiaolujiare_day_all!A7)</f>
@@ -1730,8 +1670,8 @@
       </c>
     </row>
     <row r="14" spans="2:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="5">
-        <v>20</v>
+      <c r="B14" s="10">
+        <v>8</v>
       </c>
       <c r="C14" s="6" t="str">
         <f>IF(_jiaolujiare_day_all!A8="","",_jiaolujiare_day_all!A8)</f>
@@ -1777,8 +1717,8 @@
       </c>
     </row>
     <row r="15" spans="2:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="5">
-        <v>22</v>
+      <c r="B15" s="10">
+        <v>10</v>
       </c>
       <c r="C15" s="6" t="str">
         <f>IF(_jiaolujiare_day_all!A9="","",_jiaolujiare_day_all!A9)</f>
@@ -1824,8 +1764,8 @@
       </c>
     </row>
     <row r="16" spans="2:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="5">
-        <v>24</v>
+      <c r="B16" s="10">
+        <v>12</v>
       </c>
       <c r="C16" s="6" t="str">
         <f>IF(_jiaolujiare_day_all!A10="","",_jiaolujiare_day_all!A10)</f>
@@ -1871,8 +1811,8 @@
       </c>
     </row>
     <row r="17" spans="2:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="5">
-        <v>2</v>
+      <c r="B17" s="10">
+        <v>14</v>
       </c>
       <c r="C17" s="6" t="str">
         <f>IF(_jiaolujiare_day_all!A11="","",_jiaolujiare_day_all!A11)</f>
@@ -1918,8 +1858,8 @@
       </c>
     </row>
     <row r="18" spans="2:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="5">
-        <v>4</v>
+      <c r="B18" s="10">
+        <v>16</v>
       </c>
       <c r="C18" s="6" t="str">
         <f>IF(_jiaolujiare_day_all!A12="","",_jiaolujiare_day_all!A12)</f>
@@ -1965,8 +1905,8 @@
       </c>
     </row>
     <row r="19" spans="2:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="5">
-        <v>6</v>
+      <c r="B19" s="10">
+        <v>18</v>
       </c>
       <c r="C19" s="6" t="str">
         <f>IF(_jiaolujiare_day_all!A13="","",_jiaolujiare_day_all!A13)</f>
@@ -2013,304 +1953,304 @@
     </row>
     <row r="20" spans="2:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="6" t="str">
+        <v>19</v>
+      </c>
+      <c r="C20" s="11" t="str">
         <f t="shared" ref="C20:N20" si="0">IFERROR(AVERAGE(C8:C13),"")</f>
         <v/>
       </c>
-      <c r="D20" s="6" t="str">
+      <c r="D20" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E20" s="6" t="str">
+      <c r="E20" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F20" s="6" t="str">
+      <c r="F20" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G20" s="6" t="str">
+      <c r="G20" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H20" s="6" t="str">
+      <c r="H20" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I20" s="6" t="str">
+      <c r="I20" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J20" s="6" t="str">
+      <c r="J20" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K20" s="6" t="str">
+      <c r="K20" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L20" s="6" t="str">
+      <c r="L20" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M20" s="6" t="str">
+      <c r="M20" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="N20" s="7" t="str">
+      <c r="N20" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="21" spans="2:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="6" t="str">
+        <v>20</v>
+      </c>
+      <c r="C21" s="11" t="str">
         <f t="shared" ref="C21:N21" si="1">IFERROR(AVERAGE(C14:C19),"")</f>
         <v/>
       </c>
-      <c r="D21" s="6" t="str">
+      <c r="D21" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="E21" s="6" t="str">
+      <c r="E21" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F21" s="6" t="str">
+      <c r="F21" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G21" s="6" t="str">
+      <c r="G21" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H21" s="6" t="str">
+      <c r="H21" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I21" s="6" t="str">
+      <c r="I21" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J21" s="6" t="str">
+      <c r="J21" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K21" s="6" t="str">
+      <c r="K21" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L21" s="6" t="str">
+      <c r="L21" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M21" s="6" t="str">
+      <c r="M21" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N21" s="7" t="str">
+      <c r="N21" s="12" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="22" spans="2:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="6" t="str">
+        <v>21</v>
+      </c>
+      <c r="C22" s="11" t="str">
         <f t="shared" ref="C22:N22" si="2">IFERROR(AVERAGE(C8:C19),"")</f>
         <v/>
       </c>
-      <c r="D22" s="6" t="str">
+      <c r="D22" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E22" s="6" t="str">
+      <c r="E22" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F22" s="6" t="str">
+      <c r="F22" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G22" s="6" t="str">
+      <c r="G22" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H22" s="6" t="str">
+      <c r="H22" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I22" s="6" t="str">
+      <c r="I22" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J22" s="6" t="str">
+      <c r="J22" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K22" s="6" t="str">
+      <c r="K22" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L22" s="6" t="str">
+      <c r="L22" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M22" s="6" t="str">
+      <c r="M22" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N22" s="7" t="str">
+      <c r="N22" s="12" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="23" spans="2:14" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="38"/>
+      <c r="B23" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="30"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="16"/>
+      <c r="B24" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="35"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B25" s="12"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="19"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="38"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B26" s="12"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="19"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="38"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="12"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="19"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="37"/>
+      <c r="N27" s="38"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="12"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="19"/>
-    </row>
-    <row r="29" spans="2:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="13"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="22"/>
-    </row>
-    <row r="30" spans="2:14" ht="14.4" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="37"/>
+      <c r="N28" s="38"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B29" s="32"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="40"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="40"/>
+      <c r="N29" s="41"/>
+    </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="M6:N6"/>
     <mergeCell ref="B23:H23"/>
     <mergeCell ref="I23:N23"/>
-    <mergeCell ref="D2:L2"/>
-    <mergeCell ref="I5:N5"/>
     <mergeCell ref="B24:B29"/>
     <mergeCell ref="C24:N29"/>
+    <mergeCell ref="D2:L2"/>
     <mergeCell ref="K3:N3"/>
     <mergeCell ref="K4:N4"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:N5"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="G6:G7"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <printOptions gridLines="1" gridLinesSet="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -2325,47 +2265,49 @@
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="33.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>25</v>
+      <c r="L1" s="9" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <printOptions gridLines="1" gridLinesSet="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40378819-6798-4901-AB89-44C8DCF0D466}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2374,13 +2316,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <printOptions gridLines="1" gridLinesSet="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2389,15 +2333,16 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1">
         <v>910</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <printOptions gridLines="1" gridLinesSet="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>